--- a/Nevasa/InformeCompleto/20241205/20241205_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20241205/20241205_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,30 +622,30 @@
         <v>45631</v>
       </c>
       <c r="D5" t="n">
-        <v>1.82</v>
+        <v>0.46</v>
       </c>
       <c r="E5" t="n">
-        <v>10000</v>
+        <v>565086633</v>
       </c>
       <c r="F5" t="n">
-        <v>383176636</v>
+        <v>565000000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BTU0150326</t>
+          <t>PACTO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>PACTO</t>
         </is>
       </c>
     </row>
@@ -702,20 +702,20 @@
         <v>45631</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="E7" t="n">
         <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>392331046</v>
+        <v>383176636</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BSTD160424</t>
+          <t>BTU0150326</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -742,20 +742,20 @@
         <v>45631</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F8" t="n">
-        <v>766077126</v>
+        <v>392331046</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BTU0150326</t>
+          <t>BSTD160424</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -785,10 +785,10 @@
         <v>1.85</v>
       </c>
       <c r="E9" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F9" t="n">
-        <v>1915923880</v>
+        <v>766077126</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -816,26 +816,26 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45631</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E10" t="n">
-        <v>54870370</v>
+        <v>50000</v>
       </c>
       <c r="F10" t="n">
-        <v>54828890</v>
+        <v>1915923880</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CCU</t>
+          <t>BTU0150326</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SIMULTANEA</t>
+          <t>RENTA FIJA</t>
         </is>
       </c>
     </row>
@@ -865,17 +865,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>168480000</v>
+        <v>54870370</v>
       </c>
       <c r="F11" t="n">
-        <v>167920000</v>
+        <v>54828890</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ORO BLANCO</t>
+          <t>CCU</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>33728000</v>
+        <v>168480000</v>
       </c>
       <c r="F12" t="n">
-        <v>33616000</v>
+        <v>167920000</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -942,30 +942,30 @@
         <v>45631</v>
       </c>
       <c r="D13" t="n">
-        <v>0.436</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>700000000</v>
+        <v>33728000</v>
       </c>
       <c r="F13" t="n">
-        <v>699593300</v>
+        <v>33616000</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BNPDBC091224</t>
+          <t>ORO BLANCO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -982,20 +982,20 @@
         <v>45631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="E14" t="n">
-        <v>750000000</v>
+        <v>700000000</v>
       </c>
       <c r="F14" t="n">
-        <v>749456700</v>
+        <v>699593300</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BNPDBC101224</t>
+          <t>BNPDBC091224</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1022,13 +1022,13 @@
         <v>45631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="E15" t="n">
         <v>750000000</v>
       </c>
       <c r="F15" t="n">
-        <v>749455350</v>
+        <v>749456700</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1062,20 +1062,20 @@
         <v>45631</v>
       </c>
       <c r="D16" t="n">
-        <v>16678.75</v>
+        <v>0.436</v>
       </c>
       <c r="E16" t="n">
-        <v>1047</v>
+        <v>750000000</v>
       </c>
       <c r="F16" t="n">
-        <v>17462651</v>
+        <v>749455350</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CFINHRFLA</t>
+          <t>BNPDBC101224</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1102,13 +1102,13 @@
         <v>45631</v>
       </c>
       <c r="D17" t="n">
-        <v>16678.76</v>
+        <v>16678.75</v>
       </c>
       <c r="E17" t="n">
-        <v>2204</v>
+        <v>1047</v>
       </c>
       <c r="F17" t="n">
-        <v>36759986</v>
+        <v>17462651</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1142,28 +1142,108 @@
         <v>45631</v>
       </c>
       <c r="D18" t="n">
+        <v>16678.76</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2204</v>
+      </c>
+      <c r="F18" t="n">
+        <v>36759986</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16678.76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>216824</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="D20" t="n">
         <v>16125.39</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E20" t="n">
         <v>10750</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F20" t="n">
         <v>173347943</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>CFINHRFLB</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>RENTA VARIABLE</t>
         </is>
